--- a/2. Báo cáo - giấy tờ/3. Sản xuất/Xuất nhập kho 2025/Xuất kho/Tháng 10/XKSX_LK_10LE4G-56_FIX-NGUON-BK_151025.xlsx
+++ b/2. Báo cáo - giấy tờ/3. Sản xuất/Xuất nhập kho 2025/Xuất kho/Tháng 10/XKSX_LK_10LE4G-56_FIX-NGUON-BK_151025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\2. Báo cáo - giấy tờ\3. Sản xuất\Xuất nhập kho 2025\Xuất kho\Tháng 10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C23292EF-A3CE-4927-905F-0B96CAF4EAAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D011EB-9732-40FA-8245-1F994E58A809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,14 +23,14 @@
     <sheet name="BM.06" sheetId="9" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">BM.07!$A$1:$G$71</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">BM.07!$A$1:$G$42</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="161">
   <si>
     <t>STT</t>
   </si>
@@ -397,9 +397,6 @@
     <t>Tôi đã nhận đủ toàn bộ số hàng, đã kiểm tra và nhận hàng đầy đủ</t>
   </si>
   <si>
-    <t>Bộ phận/ Phòng ban: Sản xuất - Bảo hành</t>
-  </si>
-  <si>
     <t>Mã Linh Kiện</t>
   </si>
   <si>
@@ -424,42 +421,6 @@
     <t>Số lượng / trọng lượng</t>
   </si>
   <si>
-    <t>Hà Nội, Ngày 15 Tháng 10 Năm 2025</t>
-  </si>
-  <si>
-    <t>VT_ANTENNA_GPS AH316M</t>
-  </si>
-  <si>
-    <t>VT_CAP_C0603 100nF</t>
-  </si>
-  <si>
-    <t>VT_CAP TAN 100uF 6.3V</t>
-  </si>
-  <si>
-    <t>VT_TỤ ĐIỆN_C0603 33pF</t>
-  </si>
-  <si>
-    <t>VT_CAP_C0603 10nF</t>
-  </si>
-  <si>
-    <t>VT_CAP_C0603 2.2uF(GRM188R61H225KE11J)</t>
-  </si>
-  <si>
-    <t>VT_CAP_C0603 22pF</t>
-  </si>
-  <si>
-    <t>VT_Tụ điện_C0603 10uf</t>
-  </si>
-  <si>
-    <t>VT_TỤ ĐIỆN_C0603 1nF VT_CAP_C0603 1nF</t>
-  </si>
-  <si>
-    <t>VT_CAP_C0603 150pF</t>
-  </si>
-  <si>
-    <t>VT_CAP_C0603 220pF</t>
-  </si>
-  <si>
     <t>VT_TỤ ĐIỆN_C0603 10pF</t>
   </si>
   <si>
@@ -481,36 +442,15 @@
     <t xml:space="preserve">VT_Fuse_60V_750MA_ Cầu chì tự phục hồi </t>
   </si>
   <si>
-    <t>VT_Connector_2*2 (M3045)</t>
-  </si>
-  <si>
     <t xml:space="preserve">VT_MUP_C7801 Socket nano sim 7P( khay sim) </t>
   </si>
   <si>
-    <t>VVT_IND_3225 2.2uH</t>
-  </si>
-  <si>
     <t>VT_IND_10uH/1.9A</t>
   </si>
   <si>
-    <t>VT_Buzzer 3V 9mm</t>
-  </si>
-  <si>
-    <t>VT_Module_GPS L76</t>
-  </si>
-  <si>
-    <t>VT_Module_GSM sim800C</t>
-  </si>
-  <si>
     <t>VT_TRANZITOR_MMBT3904</t>
   </si>
   <si>
-    <t>VT_MOSFET_IRLML6402TRPBF</t>
-  </si>
-  <si>
-    <t>VT_ĐIỆN TRỞ_R0603 68K</t>
-  </si>
-  <si>
     <t>VT_ĐIỆN TRỞ_R0603 100K</t>
   </si>
   <si>
@@ -538,88 +478,46 @@
     <t>VT_RES_R0603 22R</t>
   </si>
   <si>
-    <t>VT_RES_R0603 330R</t>
-  </si>
-  <si>
     <t>VT_IC_SPX3819M5-L-3-3/TR</t>
   </si>
   <si>
-    <t>VT_IC_CR95HF</t>
-  </si>
-  <si>
-    <t>VT_IC_bộ nhớ 8M 02( nguồn 3.3V</t>
-  </si>
-  <si>
-    <t>VT_IC_KXTJ3_1057</t>
-  </si>
-  <si>
-    <t>VT_IC_Max3232EIDR</t>
-  </si>
-  <si>
-    <t>VT_CRYSTAL_SMD 27.12Mhz</t>
-  </si>
-  <si>
     <t xml:space="preserve">VT_CRYSTAL_SMD 32.768KHz </t>
   </si>
   <si>
     <t>Chiếc</t>
   </si>
   <si>
-    <t>CAP CER 4.7UF 100V X5R 1210</t>
-  </si>
-  <si>
-    <t>DIODE SCHOTTKY 60V 2A SOD123W</t>
-  </si>
-  <si>
-    <t>PMEG6020ER,115</t>
-  </si>
-  <si>
-    <t>HMK325BJ475KM-PE</t>
-  </si>
-  <si>
-    <t>RES SMD 294K OHM 1% 1/10W 0603</t>
-  </si>
-  <si>
-    <t>RES SMD 42K2 OHM 1% 1/10W 0603</t>
-  </si>
-  <si>
-    <t>RC0603FR-07294KL</t>
-  </si>
-  <si>
-    <t>RC0603FR-0742K2L</t>
-  </si>
-  <si>
-    <t>Buckregulator   with   4.3V   to   60V   input   range   and   3A   continuous  output  current</t>
-  </si>
-  <si>
-    <t>SGM61630AXPS8G/TR</t>
-  </si>
-  <si>
-    <t>LQFP-64(7x7) Microcontrollers (MCU/MPU/SOC) ROHS</t>
-  </si>
-  <si>
-    <t>HT32F52367_LQFP64</t>
-  </si>
-  <si>
-    <t>200ms Active Low 1.1V~5.5V 1 SOT-25-5 Supervisor and Reset ICs ROHS</t>
-  </si>
-  <si>
-    <t>APX823-26W5G-7</t>
-  </si>
-  <si>
     <t>CRYSTAL 8.0MHZ 10PF SMD</t>
   </si>
   <si>
-    <t>TZ3313B</t>
-  </si>
-  <si>
     <t>VT_Vỏ hộp_TG102LE</t>
   </si>
   <si>
     <t>HH_bó dây_BD-04-0</t>
   </si>
   <si>
-    <t>Sản xuất 10 bộ LE mẫu 56 (IV1 chân nguồn)</t>
+    <t>Số lượng cần 100</t>
+  </si>
+  <si>
+    <t>Số lượng cần 130</t>
+  </si>
+  <si>
+    <t>VT_IC_bộ nhớ 8M 02
+( nguồn 3.3V)</t>
+  </si>
+  <si>
+    <t>Hà Nội, Ngày 16 Tháng 10 Năm 2025</t>
+  </si>
+  <si>
+    <t>Sản xuất LE-4G 
+( phiên bản 0056 
+fix IV1 chân nguồn)</t>
+  </si>
+  <si>
+    <t>TBP. BHSX/ Người Lập</t>
+  </si>
+  <si>
+    <t>Bộ phận/ Phòng ban: PKT/ Sản xuất - Bảo hành</t>
   </si>
 </sst>
 </file>
@@ -1237,7 +1135,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="189">
+  <cellXfs count="191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1377,9 +1275,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1396,6 +1291,84 @@
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1423,122 +1396,77 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1603,15 +1531,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1651,8 +1570,29 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1672,25 +1612,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1714,29 +1657,14 @@
     <xf numFmtId="3" fontId="12" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1752,30 +1680,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1784,28 +1688,7 @@
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2707,57 +2590,57 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="63" t="s">
+      <c r="A2" s="87"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="88" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="69" t="s">
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="94" t="s">
         <v>77</v>
       </c>
-      <c r="M2" s="69"/>
+      <c r="M2" s="94"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="62"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="69" t="s">
+      <c r="A3" s="87"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="94" t="s">
         <v>71</v>
       </c>
-      <c r="M3" s="69"/>
+      <c r="M3" s="94"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="62"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="69" t="s">
+      <c r="A4" s="87"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="94" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="69"/>
+      <c r="M4" s="94"/>
     </row>
     <row r="5" spans="1:13" s="47" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="47" t="s">
@@ -2784,29 +2667,29 @@
       <c r="A8" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="71" t="s">
+      <c r="B8" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
       <c r="E8" s="22" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="71" t="s">
+      <c r="G8" s="78" t="s">
         <v>84</v>
       </c>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71" t="s">
+      <c r="H8" s="78"/>
+      <c r="I8" s="78" t="s">
         <v>85</v>
       </c>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71" t="s">
+      <c r="J8" s="78"/>
+      <c r="K8" s="78" t="s">
         <v>86</v>
       </c>
-      <c r="L8" s="71"/>
+      <c r="L8" s="78"/>
       <c r="M8" s="22" t="s">
         <v>4</v>
       </c>
@@ -2815,86 +2698,86 @@
       <c r="A9" s="50">
         <v>1</v>
       </c>
-      <c r="B9" s="79" t="s">
+      <c r="B9" s="84" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="80"/>
-      <c r="D9" s="81"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="86"/>
       <c r="E9" s="48" t="s">
         <v>92</v>
       </c>
       <c r="F9" s="48">
         <v>985</v>
       </c>
-      <c r="G9" s="77"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="78"/>
-      <c r="K9" s="76" t="s">
+      <c r="G9" s="82"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="83"/>
+      <c r="K9" s="74" t="s">
         <v>104</v>
       </c>
-      <c r="L9" s="76"/>
+      <c r="L9" s="74"/>
       <c r="M9" s="22"/>
     </row>
     <row r="10" spans="1:13" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="50">
         <v>2</v>
       </c>
-      <c r="B10" s="79" t="s">
+      <c r="B10" s="84" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="80"/>
-      <c r="D10" s="81"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="86"/>
       <c r="E10" s="48" t="s">
         <v>92</v>
       </c>
       <c r="F10" s="48">
         <v>985</v>
       </c>
-      <c r="G10" s="77"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="77"/>
-      <c r="J10" s="78"/>
-      <c r="K10" s="76" t="s">
+      <c r="G10" s="82"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="83"/>
+      <c r="K10" s="74" t="s">
         <v>104</v>
       </c>
-      <c r="L10" s="76"/>
+      <c r="L10" s="74"/>
       <c r="M10" s="22"/>
     </row>
     <row r="11" spans="1:13" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="50">
         <v>3</v>
       </c>
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="C11" s="73"/>
-      <c r="D11" s="74"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="81"/>
       <c r="E11" s="48" t="s">
         <v>92</v>
       </c>
       <c r="F11" s="48">
         <v>985</v>
       </c>
-      <c r="G11" s="75"/>
-      <c r="H11" s="75"/>
-      <c r="I11" s="75"/>
-      <c r="J11" s="75"/>
-      <c r="K11" s="76" t="s">
+      <c r="G11" s="73"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="74" t="s">
         <v>104</v>
       </c>
-      <c r="L11" s="76"/>
+      <c r="L11" s="74"/>
       <c r="M11" s="4"/>
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="50">
         <v>4</v>
       </c>
-      <c r="B12" s="82" t="s">
+      <c r="B12" s="72" t="s">
         <v>100</v>
       </c>
-      <c r="C12" s="82"/>
-      <c r="D12" s="82"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
       <c r="E12" s="48" t="s">
         <v>92</v>
       </c>
@@ -2902,58 +2785,58 @@
         <f>985*2</f>
         <v>1970</v>
       </c>
-      <c r="G12" s="75"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="75"/>
-      <c r="K12" s="76" t="s">
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="74" t="s">
         <v>104</v>
       </c>
-      <c r="L12" s="76"/>
+      <c r="L12" s="74"/>
       <c r="M12" s="4"/>
     </row>
     <row r="13" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="83" t="s">
+      <c r="A14" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="B14" s="84"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="83" t="s">
+      <c r="B14" s="76"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="G14" s="84"/>
-      <c r="H14" s="84"/>
-      <c r="I14" s="85"/>
-      <c r="J14" s="83" t="s">
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="84"/>
-      <c r="L14" s="84"/>
-      <c r="M14" s="85"/>
+      <c r="K14" s="76"/>
+      <c r="L14" s="76"/>
+      <c r="M14" s="77"/>
     </row>
     <row r="15" spans="1:13" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="86" t="s">
+      <c r="A15" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="87"/>
-      <c r="C15" s="87"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="86" t="s">
+      <c r="B15" s="67"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="87"/>
-      <c r="H15" s="87"/>
-      <c r="I15" s="88"/>
-      <c r="J15" s="86" t="s">
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="K15" s="87"/>
-      <c r="L15" s="87"/>
-      <c r="M15" s="88"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="67"/>
+      <c r="M15" s="68"/>
     </row>
     <row r="16" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
@@ -2988,25 +2871,25 @@
       <c r="M19" s="7"/>
     </row>
     <row r="20" spans="1:13" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="89" t="s">
+      <c r="A20" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="B20" s="90"/>
-      <c r="C20" s="90"/>
-      <c r="D20" s="90"/>
-      <c r="E20" s="91"/>
-      <c r="F20" s="89" t="s">
+      <c r="B20" s="70"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="G20" s="90"/>
-      <c r="H20" s="90"/>
-      <c r="I20" s="91"/>
-      <c r="J20" s="89" t="s">
+      <c r="G20" s="70"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="K20" s="90"/>
-      <c r="L20" s="90"/>
-      <c r="M20" s="91"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="71"/>
     </row>
     <row r="21" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="22" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -3019,19 +2902,12 @@
     <row r="29" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="A2:C4"/>
+    <mergeCell ref="D2:K3"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="D4:K4"/>
+    <mergeCell ref="L4:M4"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="I8:J8"/>
@@ -3048,12 +2924,19 @@
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
-    <mergeCell ref="A2:C4"/>
-    <mergeCell ref="D2:K3"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="D4:K4"/>
-    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:M20"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.6692913385826772" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="79" orientation="portrait" r:id="rId1"/>
@@ -3087,51 +2970,51 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="63" t="s">
+      <c r="A2" s="87"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="88" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="69" t="s">
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="94" t="s">
         <v>77</v>
       </c>
-      <c r="K2" s="69"/>
+      <c r="K2" s="94"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="62"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="69" t="s">
+      <c r="A3" s="87"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="94" t="s">
         <v>71</v>
       </c>
-      <c r="K3" s="69"/>
+      <c r="K3" s="94"/>
     </row>
     <row r="4" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="62"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="69" t="s">
+      <c r="A4" s="87"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="94" t="s">
         <v>61</v>
       </c>
-      <c r="K4" s="69"/>
+      <c r="K4" s="94"/>
     </row>
     <row r="5" spans="1:11" s="47" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="47" t="s">
@@ -3158,23 +3041,23 @@
       <c r="A8" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="71" t="s">
+      <c r="B8" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
       <c r="E8" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="77" t="s">
+      <c r="F8" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="78"/>
-      <c r="H8" s="77" t="s">
+      <c r="G8" s="83"/>
+      <c r="H8" s="82" t="s">
         <v>86</v>
       </c>
-      <c r="I8" s="95"/>
-      <c r="J8" s="78"/>
+      <c r="I8" s="96"/>
+      <c r="J8" s="83"/>
       <c r="K8" s="22" t="s">
         <v>4</v>
       </c>
@@ -3183,46 +3066,46 @@
       <c r="A9" s="50">
         <v>1</v>
       </c>
-      <c r="B9" s="92" t="s">
+      <c r="B9" s="97" t="s">
         <v>108</v>
       </c>
-      <c r="C9" s="93"/>
-      <c r="D9" s="94"/>
+      <c r="C9" s="98"/>
+      <c r="D9" s="99"/>
       <c r="E9" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="F9" s="92">
+      <c r="F9" s="97">
         <v>6</v>
       </c>
-      <c r="G9" s="94"/>
-      <c r="H9" s="92" t="s">
+      <c r="G9" s="99"/>
+      <c r="H9" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="I9" s="93"/>
-      <c r="J9" s="94"/>
+      <c r="I9" s="98"/>
+      <c r="J9" s="99"/>
       <c r="K9" s="50"/>
     </row>
     <row r="10" spans="1:11" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="50">
         <v>2</v>
       </c>
-      <c r="B10" s="92" t="s">
+      <c r="B10" s="97" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="93"/>
-      <c r="D10" s="94"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="99"/>
       <c r="E10" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="F10" s="92">
+      <c r="F10" s="97">
         <v>4</v>
       </c>
-      <c r="G10" s="94"/>
-      <c r="H10" s="92" t="s">
+      <c r="G10" s="99"/>
+      <c r="H10" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="I10" s="93"/>
-      <c r="J10" s="94"/>
+      <c r="I10" s="98"/>
+      <c r="J10" s="99"/>
       <c r="K10" s="50" t="s">
         <v>113</v>
       </c>
@@ -3231,65 +3114,65 @@
       <c r="A11" s="50">
         <v>3</v>
       </c>
-      <c r="B11" s="92" t="s">
+      <c r="B11" s="97" t="s">
         <v>111</v>
       </c>
-      <c r="C11" s="93"/>
-      <c r="D11" s="94"/>
+      <c r="C11" s="98"/>
+      <c r="D11" s="99"/>
       <c r="E11" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="F11" s="92">
+      <c r="F11" s="97">
         <v>2</v>
       </c>
-      <c r="G11" s="94"/>
-      <c r="H11" s="92" t="s">
+      <c r="G11" s="99"/>
+      <c r="H11" s="97" t="s">
         <v>110</v>
       </c>
-      <c r="I11" s="93"/>
-      <c r="J11" s="94"/>
+      <c r="I11" s="98"/>
+      <c r="J11" s="99"/>
       <c r="K11" s="50" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="83" t="s">
+      <c r="A13" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="B13" s="84"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="83" t="s">
+      <c r="B13" s="76"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="G13" s="85"/>
-      <c r="H13" s="83" t="s">
+      <c r="G13" s="77"/>
+      <c r="H13" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="I13" s="84"/>
-      <c r="J13" s="84"/>
-      <c r="K13" s="85"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="77"/>
     </row>
     <row r="14" spans="1:11" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="86" t="s">
+      <c r="A14" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="87"/>
-      <c r="C14" s="87"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="86" t="s">
+      <c r="B14" s="67"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="88"/>
-      <c r="H14" s="86" t="s">
+      <c r="G14" s="68"/>
+      <c r="H14" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="I14" s="87"/>
-      <c r="J14" s="87"/>
-      <c r="K14" s="88"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="68"/>
     </row>
     <row r="15" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
@@ -3324,23 +3207,23 @@
       <c r="K18" s="7"/>
     </row>
     <row r="19" spans="1:11" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="89" t="s">
+      <c r="A19" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="B19" s="90"/>
-      <c r="C19" s="90"/>
-      <c r="D19" s="90"/>
-      <c r="E19" s="91"/>
-      <c r="F19" s="89" t="s">
+      <c r="B19" s="70"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="G19" s="91"/>
-      <c r="H19" s="89" t="s">
+      <c r="G19" s="71"/>
+      <c r="H19" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="I19" s="90"/>
-      <c r="J19" s="90"/>
-      <c r="K19" s="91"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="71"/>
     </row>
     <row r="20" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -3353,6 +3236,24 @@
     <row r="28" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A2:C4"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="D2:I3"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="F8:G8"/>
     <mergeCell ref="H19:K19"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="A19:E19"/>
@@ -3362,24 +3263,6 @@
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="H14:K14"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A2:C4"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="D2:I3"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:J11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0" right="0" top="0.6692913385826772" bottom="0" header="0" footer="0"/>
@@ -3394,21 +3277,21 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J83"/>
+  <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A49" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="F66" sqref="F66"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8:F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="3.28515625" style="1" customWidth="1"/>
     <col min="9" max="9" width="3" style="1" customWidth="1"/>
     <col min="10" max="10" width="2.140625" style="1" customWidth="1"/>
@@ -3419,89 +3302,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="62"/>
-      <c r="B1" s="62"/>
-      <c r="C1" s="100" t="s">
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="101" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="100"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="106" t="s">
+      <c r="D1" s="101"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="107" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="106"/>
+      <c r="G1" s="107"/>
     </row>
     <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="106" t="s">
+      <c r="A2" s="87"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="107" t="s">
         <v>71</v>
       </c>
-      <c r="G2" s="106"/>
+      <c r="G2" s="107"/>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="62"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="106" t="s">
+      <c r="A3" s="87"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="G3" s="106"/>
+      <c r="G3" s="107"/>
     </row>
     <row r="4" spans="1:7" s="47" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="109" t="s">
-        <v>127</v>
-      </c>
-      <c r="B4" s="109"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
+      <c r="A4" s="110" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
     </row>
     <row r="5" spans="1:7" s="47" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="108" t="s">
-        <v>121</v>
-      </c>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="61" t="s">
-        <v>126</v>
-      </c>
-      <c r="E5" s="107" t="s">
-        <v>130</v>
-      </c>
-      <c r="F5" s="107"/>
-      <c r="G5" s="107"/>
+      <c r="A5" s="109" t="s">
+        <v>160</v>
+      </c>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" s="108" t="s">
+        <v>157</v>
+      </c>
+      <c r="F5" s="108"/>
+      <c r="G5" s="108"/>
     </row>
     <row r="6" spans="1:7" s="47" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="108" t="s">
-        <v>124</v>
-      </c>
-      <c r="B6" s="108"/>
-      <c r="C6" s="108"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
+      <c r="A6" s="109" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" s="109"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
     </row>
     <row r="7" spans="1:7" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="53" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="53" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C7" s="53" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E7" s="53" t="s">
         <v>116</v>
@@ -3513,999 +3396,552 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" s="50">
         <v>1</v>
       </c>
-      <c r="B8" s="187" t="s">
-        <v>131</v>
-      </c>
-      <c r="C8" s="184" t="s">
-        <v>176</v>
-      </c>
-      <c r="D8" s="187">
+      <c r="B8" s="61" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="113" t="s">
+        <v>150</v>
+      </c>
+      <c r="D8" s="61">
         <v>10</v>
       </c>
       <c r="E8" s="50"/>
-      <c r="F8" s="184" t="s">
-        <v>195</v>
-      </c>
-      <c r="G8" s="187"/>
-    </row>
-    <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F8" s="113" t="s">
+        <v>158</v>
+      </c>
+      <c r="G8" s="61"/>
+    </row>
+    <row r="9" spans="1:7" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="50">
         <v>2</v>
       </c>
-      <c r="B9" s="187" t="s">
-        <v>132</v>
-      </c>
-      <c r="C9" s="185"/>
-      <c r="D9" s="187">
-        <v>310</v>
+      <c r="B9" s="61" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" s="114"/>
+      <c r="D9" s="61">
+        <v>10</v>
       </c>
       <c r="E9" s="50"/>
-      <c r="F9" s="185"/>
-      <c r="G9" s="187"/>
+      <c r="F9" s="114"/>
+      <c r="G9" s="61"/>
     </row>
     <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="50">
         <v>3</v>
       </c>
-      <c r="B10" s="187" t="s">
-        <v>177</v>
-      </c>
-      <c r="C10" s="185"/>
-      <c r="D10" s="187">
-        <v>20</v>
+      <c r="B10" s="61" t="s">
+        <v>131</v>
+      </c>
+      <c r="C10" s="114"/>
+      <c r="D10" s="61">
+        <v>10</v>
       </c>
       <c r="E10" s="50"/>
-      <c r="F10" s="185"/>
-      <c r="G10" s="188" t="s">
-        <v>180</v>
-      </c>
+      <c r="F10" s="114"/>
+      <c r="G10" s="61"/>
     </row>
     <row r="11" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="50">
         <v>4</v>
       </c>
-      <c r="B11" s="187" t="s">
-        <v>133</v>
-      </c>
-      <c r="C11" s="185"/>
-      <c r="D11" s="187">
-        <v>30</v>
+      <c r="B11" s="61" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" s="114"/>
+      <c r="D11" s="61">
+        <v>10</v>
       </c>
       <c r="E11" s="50"/>
-      <c r="F11" s="185"/>
-      <c r="G11" s="187"/>
-    </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F11" s="114"/>
+      <c r="G11" s="61"/>
+    </row>
+    <row r="12" spans="1:7" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A12" s="50">
         <v>5</v>
       </c>
-      <c r="B12" s="187" t="s">
-        <v>134</v>
-      </c>
-      <c r="C12" s="185"/>
-      <c r="D12" s="187">
-        <v>20</v>
+      <c r="B12" s="61" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" s="114"/>
+      <c r="D12" s="61">
+        <v>30</v>
       </c>
       <c r="E12" s="50"/>
-      <c r="F12" s="185"/>
-      <c r="G12" s="187"/>
+      <c r="F12" s="114"/>
+      <c r="G12" s="61"/>
     </row>
     <row r="13" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="50">
         <v>6</v>
       </c>
-      <c r="B13" s="187" t="s">
-        <v>135</v>
-      </c>
-      <c r="C13" s="185"/>
-      <c r="D13" s="187">
-        <v>20</v>
+      <c r="B13" s="61" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" s="114"/>
+      <c r="D13" s="61">
+        <v>40</v>
       </c>
       <c r="E13" s="50"/>
-      <c r="F13" s="185"/>
-      <c r="G13" s="187"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="61"/>
     </row>
     <row r="14" spans="1:7" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="50">
         <v>7</v>
       </c>
-      <c r="B14" s="187" t="s">
-        <v>136</v>
-      </c>
-      <c r="C14" s="185"/>
-      <c r="D14" s="187">
-        <v>50</v>
+      <c r="B14" s="61" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" s="114"/>
+      <c r="D14" s="61">
+        <v>10</v>
       </c>
       <c r="E14" s="50"/>
-      <c r="F14" s="185"/>
-      <c r="G14" s="187"/>
-    </row>
-    <row r="15" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F14" s="114"/>
+      <c r="G14" s="61"/>
+    </row>
+    <row r="15" spans="1:7" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" s="50">
         <v>8</v>
       </c>
-      <c r="B15" s="187" t="s">
-        <v>137</v>
-      </c>
-      <c r="C15" s="185"/>
-      <c r="D15" s="187">
-        <v>70</v>
+      <c r="B15" s="61" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" s="114"/>
+      <c r="D15" s="61">
+        <v>10</v>
       </c>
       <c r="E15" s="50"/>
-      <c r="F15" s="185"/>
-      <c r="G15" s="187"/>
+      <c r="F15" s="114"/>
+      <c r="G15" s="61"/>
     </row>
     <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="50">
         <v>9</v>
       </c>
-      <c r="B16" s="187" t="s">
-        <v>138</v>
-      </c>
-      <c r="C16" s="185"/>
-      <c r="D16" s="187">
-        <v>40</v>
+      <c r="B16" s="61" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16" s="114"/>
+      <c r="D16" s="61">
+        <v>10</v>
       </c>
       <c r="E16" s="50"/>
-      <c r="F16" s="185"/>
-      <c r="G16" s="187"/>
+      <c r="F16" s="114"/>
+      <c r="G16" s="61"/>
     </row>
     <row r="17" spans="1:7" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A17" s="50">
         <v>10</v>
       </c>
-      <c r="B17" s="187" t="s">
-        <v>139</v>
-      </c>
-      <c r="C17" s="185"/>
-      <c r="D17" s="187">
-        <v>10</v>
+      <c r="B17" s="61" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" s="114"/>
+      <c r="D17" s="61">
+        <v>29</v>
       </c>
       <c r="E17" s="50"/>
-      <c r="F17" s="185"/>
-      <c r="G17" s="187"/>
-    </row>
-    <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F17" s="114"/>
+      <c r="G17" s="61" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A18" s="50">
         <v>11</v>
       </c>
-      <c r="B18" s="187" t="s">
-        <v>140</v>
-      </c>
-      <c r="C18" s="185"/>
-      <c r="D18" s="187">
+      <c r="B18" s="61" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" s="114"/>
+      <c r="D18" s="61">
         <v>40</v>
       </c>
       <c r="E18" s="50"/>
-      <c r="F18" s="185"/>
-      <c r="G18" s="187"/>
+      <c r="F18" s="114"/>
+      <c r="G18" s="61"/>
     </row>
     <row r="19" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="50">
         <v>12</v>
       </c>
-      <c r="B19" s="187" t="s">
-        <v>141</v>
-      </c>
-      <c r="C19" s="185"/>
-      <c r="D19" s="187">
-        <v>20</v>
+      <c r="B19" s="61" t="s">
+        <v>140</v>
+      </c>
+      <c r="C19" s="114"/>
+      <c r="D19" s="61">
+        <v>10</v>
       </c>
       <c r="E19" s="50"/>
-      <c r="F19" s="185"/>
-      <c r="G19" s="187"/>
+      <c r="F19" s="114"/>
+      <c r="G19" s="61"/>
     </row>
     <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="50">
         <v>13</v>
       </c>
-      <c r="B20" s="187" t="s">
-        <v>142</v>
-      </c>
-      <c r="C20" s="185"/>
-      <c r="D20" s="187">
-        <v>10</v>
+      <c r="B20" s="61" t="s">
+        <v>141</v>
+      </c>
+      <c r="C20" s="114"/>
+      <c r="D20" s="61">
+        <v>230</v>
       </c>
       <c r="E20" s="50"/>
-      <c r="F20" s="185"/>
-      <c r="G20" s="187"/>
+      <c r="F20" s="114"/>
+      <c r="G20" s="61"/>
     </row>
     <row r="21" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="50">
         <v>14</v>
       </c>
-      <c r="B21" s="187" t="s">
-        <v>143</v>
-      </c>
-      <c r="C21" s="185"/>
-      <c r="D21" s="187">
-        <v>10</v>
+      <c r="B21" s="61" t="s">
+        <v>142</v>
+      </c>
+      <c r="C21" s="114"/>
+      <c r="D21" s="61">
+        <v>40</v>
       </c>
       <c r="E21" s="50"/>
-      <c r="F21" s="185"/>
-      <c r="G21" s="187"/>
-    </row>
-    <row r="22" spans="1:7" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F21" s="114"/>
+      <c r="G21" s="61"/>
+    </row>
+    <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="50">
         <v>15</v>
       </c>
-      <c r="B22" s="187" t="s">
-        <v>178</v>
-      </c>
-      <c r="C22" s="185"/>
-      <c r="D22" s="187">
-        <v>30</v>
+      <c r="B22" s="61" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" s="114"/>
+      <c r="D22" s="61">
+        <v>60</v>
       </c>
       <c r="E22" s="50"/>
-      <c r="F22" s="185"/>
-      <c r="G22" s="188" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F22" s="114"/>
+      <c r="G22" s="61"/>
+    </row>
+    <row r="23" spans="1:7" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A23" s="50">
         <v>16</v>
       </c>
-      <c r="B23" s="187" t="s">
+      <c r="B23" s="61" t="s">
         <v>144</v>
       </c>
-      <c r="C23" s="185"/>
-      <c r="D23" s="187">
-        <v>10</v>
+      <c r="C23" s="114"/>
+      <c r="D23" s="61">
+        <v>124</v>
       </c>
       <c r="E23" s="50"/>
-      <c r="F23" s="185"/>
-      <c r="G23" s="187"/>
+      <c r="F23" s="114"/>
+      <c r="G23" s="61" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="24" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="50">
         <v>17</v>
       </c>
-      <c r="B24" s="187" t="s">
+      <c r="B24" s="61" t="s">
         <v>145</v>
       </c>
-      <c r="C24" s="185"/>
-      <c r="D24" s="187">
-        <v>10</v>
+      <c r="C24" s="114"/>
+      <c r="D24" s="61">
+        <v>20</v>
       </c>
       <c r="E24" s="50"/>
-      <c r="F24" s="185"/>
-      <c r="G24" s="187"/>
-    </row>
-    <row r="25" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F24" s="114"/>
+      <c r="G24" s="61"/>
+    </row>
+    <row r="25" spans="1:7" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A25" s="50">
         <v>18</v>
       </c>
-      <c r="B25" s="187" t="s">
+      <c r="B25" s="61" t="s">
         <v>146</v>
       </c>
-      <c r="C25" s="185"/>
-      <c r="D25" s="187">
-        <v>30</v>
+      <c r="C25" s="114"/>
+      <c r="D25" s="61">
+        <v>40</v>
       </c>
       <c r="E25" s="50"/>
-      <c r="F25" s="185"/>
-      <c r="G25" s="187"/>
+      <c r="F25" s="114"/>
+      <c r="G25" s="61"/>
     </row>
     <row r="26" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="50">
         <v>19</v>
       </c>
-      <c r="B26" s="187" t="s">
+      <c r="B26" s="61" t="s">
         <v>147</v>
       </c>
-      <c r="C26" s="185"/>
-      <c r="D26" s="187">
-        <v>40</v>
+      <c r="C26" s="114"/>
+      <c r="D26" s="61">
+        <v>30</v>
       </c>
       <c r="E26" s="50"/>
-      <c r="F26" s="185"/>
-      <c r="G26" s="187"/>
+      <c r="F26" s="114"/>
+      <c r="G26" s="61"/>
     </row>
     <row r="27" spans="1:7" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A27" s="50">
         <v>20</v>
       </c>
-      <c r="B27" s="187" t="s">
+      <c r="B27" s="61" t="s">
         <v>148</v>
       </c>
-      <c r="C27" s="185"/>
-      <c r="D27" s="187">
+      <c r="C27" s="114"/>
+      <c r="D27" s="61">
         <v>10</v>
       </c>
       <c r="E27" s="50"/>
-      <c r="F27" s="185"/>
-      <c r="G27" s="187"/>
-    </row>
-    <row r="28" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F27" s="114"/>
+      <c r="G27" s="61"/>
+    </row>
+    <row r="28" spans="1:7" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A28" s="50">
         <v>21</v>
       </c>
-      <c r="B28" s="187" t="s">
-        <v>149</v>
-      </c>
-      <c r="C28" s="185"/>
-      <c r="D28" s="187">
-        <v>20</v>
+      <c r="B28" s="61" t="s">
+        <v>156</v>
+      </c>
+      <c r="C28" s="114"/>
+      <c r="D28" s="61">
+        <v>10</v>
       </c>
       <c r="E28" s="50"/>
-      <c r="F28" s="185"/>
-      <c r="G28" s="187"/>
+      <c r="F28" s="114"/>
+      <c r="G28" s="61"/>
     </row>
     <row r="29" spans="1:7" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A29" s="50">
         <v>22</v>
       </c>
-      <c r="B29" s="187" t="s">
-        <v>150</v>
-      </c>
-      <c r="C29" s="185"/>
-      <c r="D29" s="187">
+      <c r="B29" s="61" t="s">
+        <v>151</v>
+      </c>
+      <c r="C29" s="114"/>
+      <c r="D29" s="61">
         <v>10</v>
       </c>
       <c r="E29" s="50"/>
-      <c r="F29" s="185"/>
-      <c r="G29" s="187"/>
-    </row>
-    <row r="30" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F29" s="114"/>
+      <c r="G29" s="61"/>
+    </row>
+    <row r="30" spans="1:7" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A30" s="50">
         <v>23</v>
       </c>
-      <c r="B30" s="187" t="s">
-        <v>151</v>
-      </c>
-      <c r="C30" s="185"/>
-      <c r="D30" s="187">
+      <c r="B30" s="61" t="s">
+        <v>149</v>
+      </c>
+      <c r="C30" s="114"/>
+      <c r="D30" s="61">
         <v>10</v>
       </c>
       <c r="E30" s="50"/>
-      <c r="F30" s="185"/>
-      <c r="G30" s="187"/>
+      <c r="F30" s="114"/>
+      <c r="G30" s="61"/>
     </row>
     <row r="31" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="50">
         <v>24</v>
       </c>
-      <c r="B31" s="187" t="s">
+      <c r="B31" s="61" t="s">
         <v>152</v>
       </c>
-      <c r="C31" s="185"/>
-      <c r="D31" s="187">
+      <c r="C31" s="114"/>
+      <c r="D31" s="61">
         <v>10</v>
       </c>
       <c r="E31" s="50"/>
-      <c r="F31" s="185"/>
-      <c r="G31" s="187"/>
+      <c r="F31" s="114"/>
+      <c r="G31" s="61"/>
     </row>
     <row r="32" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="50">
         <v>25</v>
       </c>
-      <c r="B32" s="187" t="s">
+      <c r="B32" s="61" t="s">
         <v>153</v>
       </c>
-      <c r="C32" s="185"/>
-      <c r="D32" s="187">
+      <c r="C32" s="115"/>
+      <c r="D32" s="61">
         <v>10</v>
       </c>
       <c r="E32" s="50"/>
-      <c r="F32" s="185"/>
-      <c r="G32" s="187"/>
-    </row>
-    <row r="33" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="50">
-        <v>26</v>
-      </c>
-      <c r="B33" s="187" t="s">
-        <v>154</v>
-      </c>
-      <c r="C33" s="185"/>
-      <c r="D33" s="187">
-        <v>10</v>
-      </c>
-      <c r="E33" s="50"/>
-      <c r="F33" s="185"/>
-      <c r="G33" s="187"/>
-    </row>
-    <row r="34" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="50">
-        <v>27</v>
-      </c>
-      <c r="B34" s="187" t="s">
-        <v>155</v>
-      </c>
-      <c r="C34" s="185"/>
-      <c r="D34" s="187">
-        <v>10</v>
-      </c>
-      <c r="E34" s="50"/>
-      <c r="F34" s="185"/>
-      <c r="G34" s="187"/>
-    </row>
-    <row r="35" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="50">
-        <v>28</v>
-      </c>
-      <c r="B35" s="187" t="s">
-        <v>156</v>
-      </c>
-      <c r="C35" s="185"/>
-      <c r="D35" s="187">
-        <v>100</v>
-      </c>
-      <c r="E35" s="50"/>
-      <c r="F35" s="185"/>
-      <c r="G35" s="187"/>
-    </row>
-    <row r="36" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="50">
-        <v>29</v>
-      </c>
-      <c r="B36" s="187" t="s">
-        <v>157</v>
-      </c>
-      <c r="C36" s="185"/>
-      <c r="D36" s="187">
-        <v>30</v>
-      </c>
-      <c r="E36" s="50"/>
-      <c r="F36" s="185"/>
-      <c r="G36" s="187"/>
-    </row>
-    <row r="37" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="50">
-        <v>30</v>
-      </c>
-      <c r="B37" s="187" t="s">
-        <v>181</v>
-      </c>
-      <c r="C37" s="185"/>
-      <c r="D37" s="187">
-        <v>50</v>
-      </c>
-      <c r="E37" s="50"/>
-      <c r="F37" s="185"/>
-      <c r="G37" s="187" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="50">
-        <v>31</v>
-      </c>
-      <c r="B38" s="187" t="s">
-        <v>182</v>
-      </c>
-      <c r="C38" s="185"/>
-      <c r="D38" s="187">
-        <v>40</v>
-      </c>
-      <c r="E38" s="50"/>
-      <c r="F38" s="185"/>
-      <c r="G38" s="187" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="50">
-        <v>32</v>
-      </c>
-      <c r="B39" s="187" t="s">
-        <v>158</v>
-      </c>
-      <c r="C39" s="185"/>
-      <c r="D39" s="187">
-        <v>10</v>
-      </c>
-      <c r="E39" s="50"/>
-      <c r="F39" s="185"/>
-      <c r="G39" s="187"/>
-    </row>
-    <row r="40" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="50">
-        <v>33</v>
-      </c>
-      <c r="B40" s="187" t="s">
+      <c r="F32" s="115"/>
+      <c r="G32" s="61"/>
+    </row>
+    <row r="33" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="64"/>
+      <c r="B33" s="64"/>
+      <c r="C33" s="64"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="63"/>
+    </row>
+    <row r="34" spans="1:10" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="65"/>
+      <c r="B34" s="65"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="54"/>
+      <c r="G34" s="54"/>
+    </row>
+    <row r="35" spans="1:10" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="111" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="111"/>
+      <c r="C35" s="111"/>
+      <c r="D35" s="111" t="s">
+        <v>124</v>
+      </c>
+      <c r="E35" s="111"/>
+      <c r="F35" s="111" t="s">
         <v>159</v>
       </c>
-      <c r="C40" s="185"/>
-      <c r="D40" s="187">
-        <v>40</v>
-      </c>
-      <c r="E40" s="50"/>
-      <c r="F40" s="185"/>
-      <c r="G40" s="187"/>
-    </row>
-    <row r="41" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="50">
-        <v>34</v>
-      </c>
-      <c r="B41" s="187" t="s">
-        <v>160</v>
-      </c>
-      <c r="C41" s="185"/>
-      <c r="D41" s="187">
-        <v>10</v>
-      </c>
-      <c r="E41" s="50"/>
-      <c r="F41" s="185"/>
-      <c r="G41" s="187"/>
-    </row>
-    <row r="42" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="50">
-        <v>35</v>
-      </c>
-      <c r="B42" s="187" t="s">
-        <v>161</v>
-      </c>
-      <c r="C42" s="185"/>
-      <c r="D42" s="187">
-        <v>230</v>
-      </c>
-      <c r="E42" s="50"/>
-      <c r="F42" s="185"/>
-      <c r="G42" s="187"/>
-    </row>
-    <row r="43" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="50">
-        <v>36</v>
-      </c>
-      <c r="B43" s="187" t="s">
-        <v>162</v>
-      </c>
-      <c r="C43" s="185"/>
-      <c r="D43" s="187">
-        <v>40</v>
-      </c>
-      <c r="E43" s="50"/>
-      <c r="F43" s="185"/>
-      <c r="G43" s="187"/>
-    </row>
-    <row r="44" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="50">
-        <v>37</v>
-      </c>
-      <c r="B44" s="187" t="s">
-        <v>163</v>
-      </c>
-      <c r="C44" s="185"/>
-      <c r="D44" s="187">
-        <v>60</v>
-      </c>
-      <c r="E44" s="50"/>
-      <c r="F44" s="185"/>
-      <c r="G44" s="187"/>
-    </row>
-    <row r="45" spans="1:7" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A45" s="50">
-        <v>38</v>
-      </c>
-      <c r="B45" s="187" t="s">
-        <v>164</v>
-      </c>
-      <c r="C45" s="185"/>
-      <c r="D45" s="187">
-        <v>130</v>
-      </c>
-      <c r="E45" s="50"/>
-      <c r="F45" s="185"/>
-      <c r="G45" s="187"/>
-    </row>
-    <row r="46" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="50">
-        <v>39</v>
-      </c>
-      <c r="B46" s="187" t="s">
-        <v>165</v>
-      </c>
-      <c r="C46" s="185"/>
-      <c r="D46" s="187">
-        <v>20</v>
-      </c>
-      <c r="E46" s="50"/>
-      <c r="F46" s="185"/>
-      <c r="G46" s="187"/>
-    </row>
-    <row r="47" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="50">
-        <v>40</v>
-      </c>
-      <c r="B47" s="187" t="s">
-        <v>166</v>
-      </c>
-      <c r="C47" s="185"/>
-      <c r="D47" s="187">
-        <v>40</v>
-      </c>
-      <c r="E47" s="50"/>
-      <c r="F47" s="185"/>
-      <c r="G47" s="187"/>
-    </row>
-    <row r="48" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="50">
-        <v>41</v>
-      </c>
-      <c r="B48" s="187" t="s">
-        <v>167</v>
-      </c>
-      <c r="C48" s="185"/>
-      <c r="D48" s="187">
-        <v>30</v>
-      </c>
-      <c r="E48" s="50"/>
-      <c r="F48" s="185"/>
-      <c r="G48" s="187"/>
-    </row>
-    <row r="49" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="50">
-        <v>42</v>
-      </c>
-      <c r="B49" s="187" t="s">
-        <v>168</v>
-      </c>
-      <c r="C49" s="185"/>
-      <c r="D49" s="187">
-        <v>20</v>
-      </c>
-      <c r="E49" s="50"/>
-      <c r="F49" s="185"/>
-      <c r="G49" s="187"/>
-    </row>
-    <row r="50" spans="1:7" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A50" s="50">
-        <v>43</v>
-      </c>
-      <c r="B50" s="187" t="s">
-        <v>185</v>
-      </c>
-      <c r="C50" s="185"/>
-      <c r="D50" s="187">
-        <v>10</v>
-      </c>
-      <c r="E50" s="50"/>
-      <c r="F50" s="185"/>
-      <c r="G50" s="187" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="50">
-        <v>44</v>
-      </c>
-      <c r="B51" s="187" t="s">
-        <v>169</v>
-      </c>
-      <c r="C51" s="185"/>
-      <c r="D51" s="187">
-        <v>10</v>
-      </c>
-      <c r="E51" s="50"/>
-      <c r="F51" s="185"/>
-      <c r="G51" s="187"/>
-    </row>
-    <row r="52" spans="1:7" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A52" s="50">
-        <v>45</v>
-      </c>
-      <c r="B52" s="187" t="s">
-        <v>187</v>
-      </c>
-      <c r="C52" s="185"/>
-      <c r="D52" s="187">
-        <v>10</v>
-      </c>
-      <c r="E52" s="50"/>
-      <c r="F52" s="185"/>
-      <c r="G52" s="187" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="50">
-        <v>46</v>
-      </c>
-      <c r="B53" s="187" t="s">
-        <v>170</v>
-      </c>
-      <c r="C53" s="185"/>
-      <c r="D53" s="187">
-        <v>10</v>
-      </c>
-      <c r="E53" s="50"/>
-      <c r="F53" s="185"/>
-      <c r="G53" s="187"/>
-    </row>
-    <row r="54" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="50">
-        <v>47</v>
-      </c>
-      <c r="B54" s="187" t="s">
-        <v>171</v>
-      </c>
-      <c r="C54" s="185"/>
-      <c r="D54" s="187">
-        <v>10</v>
-      </c>
-      <c r="E54" s="50"/>
-      <c r="F54" s="185"/>
-      <c r="G54" s="187"/>
-    </row>
-    <row r="55" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="50">
-        <v>48</v>
-      </c>
-      <c r="B55" s="187" t="s">
-        <v>172</v>
-      </c>
-      <c r="C55" s="185"/>
-      <c r="D55" s="187">
-        <v>10</v>
-      </c>
-      <c r="E55" s="50"/>
-      <c r="F55" s="185"/>
-      <c r="G55" s="187"/>
-    </row>
-    <row r="56" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="50">
-        <v>49</v>
-      </c>
-      <c r="B56" s="187" t="s">
-        <v>173</v>
-      </c>
-      <c r="C56" s="185"/>
-      <c r="D56" s="187">
-        <v>10</v>
-      </c>
-      <c r="E56" s="50"/>
-      <c r="F56" s="185"/>
-      <c r="G56" s="187"/>
-    </row>
-    <row r="57" spans="1:7" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A57" s="50">
-        <v>50</v>
-      </c>
-      <c r="B57" s="187" t="s">
-        <v>189</v>
-      </c>
-      <c r="C57" s="185"/>
-      <c r="D57" s="187">
-        <v>10</v>
-      </c>
-      <c r="E57" s="50"/>
-      <c r="F57" s="185"/>
-      <c r="G57" s="187" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="50">
-        <v>51</v>
-      </c>
-      <c r="B58" s="187" t="s">
-        <v>174</v>
-      </c>
-      <c r="C58" s="185"/>
-      <c r="D58" s="187">
-        <v>10</v>
-      </c>
-      <c r="E58" s="50"/>
-      <c r="F58" s="185"/>
-      <c r="G58" s="187"/>
-    </row>
-    <row r="59" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="50">
-        <v>52</v>
-      </c>
-      <c r="B59" s="187" t="s">
-        <v>191</v>
-      </c>
-      <c r="C59" s="185"/>
-      <c r="D59" s="187">
-        <v>10</v>
-      </c>
-      <c r="E59" s="50"/>
-      <c r="F59" s="185"/>
-      <c r="G59" s="187" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="50">
-        <v>53</v>
-      </c>
-      <c r="B60" s="187" t="s">
-        <v>175</v>
-      </c>
-      <c r="C60" s="185"/>
-      <c r="D60" s="187">
-        <v>10</v>
-      </c>
-      <c r="E60" s="50"/>
-      <c r="F60" s="185"/>
-      <c r="G60" s="187"/>
-    </row>
-    <row r="61" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="50">
-        <v>54</v>
-      </c>
-      <c r="B61" s="187" t="s">
-        <v>193</v>
-      </c>
-      <c r="C61" s="185"/>
-      <c r="D61" s="187">
-        <v>10</v>
-      </c>
-      <c r="E61" s="50"/>
-      <c r="F61" s="185"/>
-      <c r="G61" s="187"/>
-    </row>
-    <row r="62" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="50">
-        <v>55</v>
-      </c>
-      <c r="B62" s="187" t="s">
-        <v>194</v>
-      </c>
-      <c r="C62" s="186"/>
-      <c r="D62" s="187">
-        <v>10</v>
-      </c>
-      <c r="E62" s="50"/>
-      <c r="F62" s="186"/>
-      <c r="G62" s="187"/>
-    </row>
-    <row r="63" spans="1:7" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="54"/>
-      <c r="B63" s="55"/>
-      <c r="C63" s="55"/>
-      <c r="D63" s="54"/>
-      <c r="E63" s="54"/>
-      <c r="F63" s="54"/>
-      <c r="G63" s="54"/>
-    </row>
-    <row r="64" spans="1:7" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="98" t="s">
-        <v>79</v>
-      </c>
-      <c r="B64" s="98"/>
-      <c r="C64" s="98"/>
-      <c r="D64" s="98" t="s">
-        <v>125</v>
-      </c>
-      <c r="E64" s="98"/>
-      <c r="F64" s="98" t="s">
-        <v>5</v>
-      </c>
-      <c r="G64" s="98"/>
-    </row>
-    <row r="65" spans="1:10" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="97" t="s">
+      <c r="G35" s="111"/>
+    </row>
+    <row r="36" spans="1:10" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="B65" s="97"/>
-      <c r="C65" s="97"/>
-      <c r="D65" s="97" t="s">
+      <c r="B36" s="116"/>
+      <c r="C36" s="116"/>
+      <c r="D36" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="E65" s="97"/>
-      <c r="F65" s="97" t="s">
+      <c r="E36" s="116"/>
+      <c r="F36" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="G65" s="97"/>
-    </row>
-    <row r="66" spans="1:10" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="54"/>
-      <c r="B66" s="54"/>
-      <c r="C66" s="54"/>
-      <c r="D66" s="54"/>
-      <c r="E66" s="54"/>
-      <c r="F66" s="56"/>
-      <c r="G66" s="54"/>
-    </row>
-    <row r="67" spans="1:10" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="54"/>
-      <c r="B67" s="54"/>
-      <c r="C67" s="54"/>
-      <c r="D67" s="54"/>
-      <c r="E67" s="54"/>
-      <c r="F67" s="56"/>
-      <c r="G67" s="54"/>
-    </row>
-    <row r="68" spans="1:10" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="54"/>
-      <c r="B68" s="54"/>
-      <c r="C68" s="54"/>
-      <c r="D68" s="54"/>
-      <c r="E68" s="54"/>
-      <c r="F68" s="56"/>
-      <c r="G68" s="54"/>
-    </row>
-    <row r="69" spans="1:10" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="54"/>
-      <c r="B69" s="54"/>
-      <c r="C69" s="57"/>
-      <c r="D69" s="58"/>
-      <c r="E69" s="57"/>
-      <c r="F69" s="57"/>
-      <c r="G69" s="57"/>
-    </row>
-    <row r="70" spans="1:10" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="54"/>
-      <c r="B70" s="54"/>
-      <c r="C70" s="54"/>
-      <c r="D70" s="54"/>
-      <c r="E70" s="54"/>
-      <c r="F70" s="56"/>
-      <c r="G70" s="54"/>
-    </row>
-    <row r="71" spans="1:10" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="96" t="s">
+      <c r="G36" s="116"/>
+    </row>
+    <row r="37" spans="1:10" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="54"/>
+      <c r="B37" s="54"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="54"/>
+    </row>
+    <row r="38" spans="1:10" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="54"/>
+      <c r="B38" s="54"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="55"/>
+      <c r="G38" s="54"/>
+    </row>
+    <row r="39" spans="1:10" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="54"/>
+      <c r="B39" s="54"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="55"/>
+      <c r="G39" s="54"/>
+    </row>
+    <row r="40" spans="1:10" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="54"/>
+      <c r="B40" s="54"/>
+      <c r="C40" s="56"/>
+      <c r="D40" s="57"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="56"/>
+      <c r="G40" s="56"/>
+    </row>
+    <row r="41" spans="1:10" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="54"/>
+      <c r="B41" s="54"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="54"/>
+    </row>
+    <row r="42" spans="1:10" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="112" t="s">
         <v>88</v>
       </c>
-      <c r="B71" s="96"/>
-      <c r="C71" s="96"/>
-      <c r="D71" s="98" t="s">
-        <v>123</v>
-      </c>
-      <c r="E71" s="98"/>
-      <c r="F71" s="98" t="s">
-        <v>128</v>
-      </c>
-      <c r="G71" s="98"/>
-    </row>
-    <row r="72" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="73" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E73" s="99"/>
-      <c r="F73" s="99"/>
-      <c r="G73" s="99"/>
-    </row>
-    <row r="74" spans="1:10" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E74" s="87" t="s">
+      <c r="B42" s="112"/>
+      <c r="C42" s="112"/>
+      <c r="D42" s="111" t="s">
+        <v>122</v>
+      </c>
+      <c r="E42" s="111"/>
+      <c r="F42" s="111" t="s">
+        <v>127</v>
+      </c>
+      <c r="G42" s="111"/>
+    </row>
+    <row r="43" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E44" s="100"/>
+      <c r="F44" s="100"/>
+      <c r="G44" s="100"/>
+    </row>
+    <row r="45" spans="1:10" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E45" s="67" t="s">
         <v>120</v>
       </c>
-      <c r="F74" s="87"/>
-      <c r="G74" s="87"/>
-      <c r="H74" s="87"/>
-      <c r="I74" s="87"/>
-      <c r="J74" s="87"/>
-    </row>
-    <row r="75" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="76" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="77" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
-    </row>
-    <row r="78" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-    </row>
-    <row r="80" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="G80" s="51" t="s">
+      <c r="F45" s="67"/>
+      <c r="G45" s="67"/>
+      <c r="H45" s="67"/>
+      <c r="I45" s="67"/>
+      <c r="J45" s="67"/>
+    </row>
+    <row r="46" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+    </row>
+    <row r="49" spans="6:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+    </row>
+    <row r="51" spans="6:10" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="G51" s="51" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="81" spans="7:10" ht="126" x14ac:dyDescent="0.2">
-      <c r="J81" s="51" t="s">
+    <row r="52" spans="6:10" ht="126" x14ac:dyDescent="0.2">
+      <c r="J52" s="51" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="83" spans="7:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="G83" s="51"/>
+    <row r="54" spans="6:10" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="G54" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="E74:J74"/>
-    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="E45:J45"/>
+    <mergeCell ref="E44:G44"/>
     <mergeCell ref="C1:E3"/>
     <mergeCell ref="A1:B3"/>
     <mergeCell ref="F1:G1"/>
@@ -4515,26 +3951,14 @@
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="A4:D4"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="C8:C62"/>
-    <mergeCell ref="F8:F62"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="F8:F32"/>
+    <mergeCell ref="C8:C32"/>
   </mergeCells>
-  <conditionalFormatting sqref="B10">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
   <pageMargins left="1" right="1" top="1.5" bottom="1.5" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="34" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="73" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -4561,99 +3985,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="119"/>
-      <c r="B1" s="120"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="110" t="s">
+      <c r="A1" s="129"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="120" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="111"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="69" t="s">
+      <c r="E1" s="121"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="94" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="69"/>
+      <c r="H1" s="94"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="122"/>
-      <c r="B2" s="123"/>
-      <c r="C2" s="124"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="69" t="s">
+      <c r="A2" s="132"/>
+      <c r="B2" s="133"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="94" t="s">
         <v>71</v>
       </c>
-      <c r="H2" s="69"/>
+      <c r="H2" s="94"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="125"/>
-      <c r="B3" s="126"/>
-      <c r="C3" s="127"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="69" t="s">
+      <c r="A3" s="135"/>
+      <c r="B3" s="136"/>
+      <c r="C3" s="137"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="94" t="s">
         <v>61</v>
       </c>
-      <c r="H3" s="69"/>
+      <c r="H3" s="94"/>
     </row>
     <row r="4" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="129" t="s">
+      <c r="A4" s="139" t="s">
         <v>119</v>
       </c>
-      <c r="B4" s="129"/>
-      <c r="C4" s="129"/>
-      <c r="D4" s="129"/>
-      <c r="E4" s="129"/>
-      <c r="F4" s="129"/>
-      <c r="G4" s="129"/>
-      <c r="H4" s="129"/>
+      <c r="B4" s="139"/>
+      <c r="C4" s="139"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="139"/>
+      <c r="G4" s="139"/>
+      <c r="H4" s="139"/>
     </row>
     <row r="5" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75" t="s">
+      <c r="C5" s="73"/>
+      <c r="D5" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="75" t="s">
+      <c r="E5" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="75" t="s">
+      <c r="F5" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75" t="s">
+      <c r="G5" s="73"/>
+      <c r="H5" s="73" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="75"/>
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
+      <c r="A6" s="73"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
       <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="75"/>
+      <c r="H6" s="73"/>
     </row>
     <row r="7" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="48">
         <v>1</v>
       </c>
-      <c r="B7" s="132" t="s">
+      <c r="B7" s="118" t="s">
         <v>117</v>
       </c>
-      <c r="C7" s="133"/>
+      <c r="C7" s="119"/>
       <c r="D7" s="52" t="s">
         <v>118</v>
       </c>
@@ -4679,70 +4103,63 @@
       <c r="H8" s="49"/>
     </row>
     <row r="9" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="131" t="s">
+      <c r="A9" s="117" t="s">
         <v>95</v>
       </c>
-      <c r="B9" s="131"/>
-      <c r="C9" s="131" t="s">
+      <c r="B9" s="117"/>
+      <c r="C9" s="117" t="s">
         <v>79</v>
       </c>
-      <c r="D9" s="131"/>
-      <c r="E9" s="131"/>
-      <c r="F9" s="131"/>
-      <c r="G9" s="131" t="s">
+      <c r="D9" s="117"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="117"/>
+      <c r="G9" s="117" t="s">
         <v>80</v>
       </c>
-      <c r="H9" s="131"/>
+      <c r="H9" s="117"/>
     </row>
     <row r="10" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="130" t="s">
+      <c r="A10" s="140" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="130"/>
-      <c r="C10" s="130" t="s">
+      <c r="B10" s="140"/>
+      <c r="C10" s="140" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="130"/>
-      <c r="E10" s="130"/>
-      <c r="F10" s="130"/>
-      <c r="G10" s="130" t="s">
+      <c r="D10" s="140"/>
+      <c r="E10" s="140"/>
+      <c r="F10" s="140"/>
+      <c r="G10" s="140" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="130"/>
+      <c r="H10" s="140"/>
     </row>
     <row r="11" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G14" s="123"/>
-      <c r="H14" s="123"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="133"/>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="128" t="s">
+      <c r="A15" s="138" t="s">
         <v>115</v>
       </c>
-      <c r="B15" s="128"/>
-      <c r="C15" s="128" t="s">
+      <c r="B15" s="138"/>
+      <c r="C15" s="138" t="s">
         <v>93</v>
       </c>
-      <c r="D15" s="128"/>
-      <c r="E15" s="128"/>
-      <c r="F15" s="128"/>
-      <c r="G15" s="128" t="s">
+      <c r="D15" s="138"/>
+      <c r="E15" s="138"/>
+      <c r="F15" s="138"/>
+      <c r="G15" s="138" t="s">
         <v>91</v>
       </c>
-      <c r="H15" s="128"/>
+      <c r="H15" s="138"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="C9:F9"/>
     <mergeCell ref="D1:F3"/>
     <mergeCell ref="A1:C3"/>
     <mergeCell ref="G14:H14"/>
@@ -4759,6 +4176,13 @@
     <mergeCell ref="B5:C6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="C9:F9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0" right="0" top="0.78740157480314965" bottom="0.31496062992125984" header="0.27559055118110237" footer="0.23622047244094491"/>
@@ -4788,42 +4212,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="137" t="s">
+      <c r="A2" s="87"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="138"/>
-      <c r="E2" s="139"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="146"/>
       <c r="F2" s="25" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="62"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="140"/>
-      <c r="D3" s="141"/>
-      <c r="E3" s="142"/>
+      <c r="A3" s="87"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="149"/>
       <c r="F3" s="25" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="62"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="143"/>
-      <c r="D4" s="144"/>
-      <c r="E4" s="145"/>
+      <c r="A4" s="87"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="150"/>
+      <c r="D4" s="151"/>
+      <c r="E4" s="152"/>
       <c r="F4" s="25" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="136" t="s">
+      <c r="A5" s="143" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="136"/>
+      <c r="B5" s="143"/>
       <c r="F5" s="20" t="s">
         <v>45</v>
       </c>
@@ -5062,32 +4486,32 @@
       <c r="B37" s="21"/>
       <c r="C37" s="21"/>
       <c r="D37" s="21"/>
-      <c r="E37" s="146" t="s">
+      <c r="E37" s="153" t="s">
         <v>46</v>
       </c>
-      <c r="F37" s="146"/>
+      <c r="F37" s="153"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B38" s="134" t="s">
+      <c r="B38" s="141" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="134"/>
+      <c r="C38" s="141"/>
       <c r="D38" s="11"/>
-      <c r="E38" s="134" t="s">
+      <c r="E38" s="141" t="s">
         <v>5</v>
       </c>
-      <c r="F38" s="134"/>
+      <c r="F38" s="141"/>
     </row>
     <row r="39" spans="1:6" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="B39" s="135" t="s">
+      <c r="B39" s="142" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="135"/>
+      <c r="C39" s="142"/>
       <c r="D39" s="16"/>
-      <c r="E39" s="135" t="s">
+      <c r="E39" s="142" t="s">
         <v>6</v>
       </c>
-      <c r="F39" s="135"/>
+      <c r="F39" s="142"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -5131,78 +4555,78 @@
   <sheetData>
     <row r="1" spans="1:12" ht="4.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="150" t="s">
+      <c r="A2" s="87"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="164" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="150"/>
-      <c r="I2" s="150"/>
-      <c r="J2" s="151" t="s">
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="164"/>
+      <c r="H2" s="164"/>
+      <c r="I2" s="164"/>
+      <c r="J2" s="165" t="s">
         <v>74</v>
       </c>
-      <c r="K2" s="152"/>
-      <c r="L2" s="153"/>
+      <c r="K2" s="166"/>
+      <c r="L2" s="167"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="62"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="150"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="150"/>
-      <c r="F3" s="150"/>
-      <c r="G3" s="150"/>
-      <c r="H3" s="150"/>
-      <c r="I3" s="150"/>
-      <c r="J3" s="151" t="s">
+      <c r="A3" s="87"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="164"/>
+      <c r="F3" s="164"/>
+      <c r="G3" s="164"/>
+      <c r="H3" s="164"/>
+      <c r="I3" s="164"/>
+      <c r="J3" s="165" t="s">
         <v>71</v>
       </c>
-      <c r="K3" s="152"/>
-      <c r="L3" s="153"/>
+      <c r="K3" s="166"/>
+      <c r="L3" s="167"/>
     </row>
     <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="62"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="150"/>
-      <c r="D4" s="150"/>
-      <c r="E4" s="150"/>
-      <c r="F4" s="150"/>
-      <c r="G4" s="150"/>
-      <c r="H4" s="150"/>
-      <c r="I4" s="150"/>
-      <c r="J4" s="151" t="s">
+      <c r="A4" s="87"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="164"/>
+      <c r="D4" s="164"/>
+      <c r="E4" s="164"/>
+      <c r="F4" s="164"/>
+      <c r="G4" s="164"/>
+      <c r="H4" s="164"/>
+      <c r="I4" s="164"/>
+      <c r="J4" s="165" t="s">
         <v>61</v>
       </c>
-      <c r="K4" s="152"/>
-      <c r="L4" s="153"/>
+      <c r="K4" s="166"/>
+      <c r="L4" s="167"/>
     </row>
     <row r="5" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="149" t="s">
+      <c r="A5" s="163" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="149"/>
-      <c r="C5" s="149"/>
-      <c r="D5" s="149"/>
-      <c r="E5" s="149"/>
-      <c r="F5" s="149" t="s">
+      <c r="B5" s="163"/>
+      <c r="C5" s="163"/>
+      <c r="D5" s="163"/>
+      <c r="E5" s="163"/>
+      <c r="F5" s="163" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="149"/>
-      <c r="H5" s="149"/>
-      <c r="I5" s="149"/>
-      <c r="J5" s="149"/>
+      <c r="G5" s="163"/>
+      <c r="H5" s="163"/>
+      <c r="I5" s="163"/>
+      <c r="J5" s="163"/>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="148"/>
-      <c r="F6" s="148"/>
-      <c r="G6" s="148"/>
+      <c r="E6" s="162"/>
+      <c r="F6" s="162"/>
+      <c r="G6" s="162"/>
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
       <c r="K6" s="23"/>
@@ -5294,32 +4718,32 @@
     </row>
     <row r="20" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="160" t="s">
+      <c r="A21" s="161" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="75" t="s">
+      <c r="B21" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="75" t="s">
+      <c r="C21" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="75" t="s">
+      <c r="D21" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="147" t="s">
+      <c r="E21" s="157" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="147" t="s">
+      <c r="F21" s="157" t="s">
         <v>38</v>
       </c>
-      <c r="G21" s="147"/>
-      <c r="H21" s="147" t="s">
+      <c r="G21" s="157"/>
+      <c r="H21" s="157" t="s">
         <v>43</v>
       </c>
-      <c r="I21" s="147" t="s">
+      <c r="I21" s="157" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="147" t="s">
+      <c r="J21" s="157" t="s">
         <v>13</v>
       </c>
       <c r="K21" s="155" t="s">
@@ -5330,22 +4754,22 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="160"/>
-      <c r="B22" s="75"/>
-      <c r="C22" s="75"/>
-      <c r="D22" s="75"/>
-      <c r="E22" s="147"/>
+      <c r="A22" s="161"/>
+      <c r="B22" s="73"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="157"/>
       <c r="F22" s="27" t="s">
         <v>39</v>
       </c>
       <c r="G22" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="H22" s="147"/>
-      <c r="I22" s="147"/>
-      <c r="J22" s="147"/>
+      <c r="H22" s="157"/>
+      <c r="I22" s="157"/>
+      <c r="J22" s="157"/>
       <c r="K22" s="156"/>
-      <c r="L22" s="70"/>
+      <c r="L22" s="95"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="17"/>
@@ -5390,45 +4814,45 @@
       <c r="L25" s="19"/>
     </row>
     <row r="26" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D26" s="159" t="s">
+      <c r="D26" s="160" t="s">
         <v>47</v>
       </c>
-      <c r="E26" s="159"/>
-      <c r="F26" s="159"/>
-      <c r="G26" s="159"/>
+      <c r="E26" s="160"/>
+      <c r="F26" s="160"/>
+      <c r="G26" s="160"/>
     </row>
     <row r="27" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="134" t="s">
+      <c r="A27" s="141" t="s">
         <v>73</v>
       </c>
-      <c r="B27" s="134"/>
-      <c r="C27" s="134"/>
-      <c r="D27" s="134"/>
-      <c r="E27" s="134" t="s">
+      <c r="B27" s="141"/>
+      <c r="C27" s="141"/>
+      <c r="D27" s="141"/>
+      <c r="E27" s="141" t="s">
         <v>78</v>
       </c>
-      <c r="F27" s="134"/>
-      <c r="H27" s="134" t="s">
+      <c r="F27" s="141"/>
+      <c r="H27" s="141" t="s">
         <v>5</v>
       </c>
-      <c r="I27" s="134"/>
-      <c r="J27" s="134"/>
-      <c r="K27" s="134"/>
+      <c r="I27" s="141"/>
+      <c r="J27" s="141"/>
+      <c r="K27" s="141"/>
     </row>
     <row r="28" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="135"/>
-      <c r="D28" s="135"/>
-      <c r="E28" s="135" t="s">
+      <c r="C28" s="142"/>
+      <c r="D28" s="142"/>
+      <c r="E28" s="142" t="s">
         <v>6</v>
       </c>
-      <c r="F28" s="135"/>
-      <c r="I28" s="135" t="s">
+      <c r="F28" s="142"/>
+      <c r="I28" s="142" t="s">
         <v>6</v>
       </c>
-      <c r="J28" s="135"/>
+      <c r="J28" s="142"/>
       <c r="K28" s="24"/>
     </row>
     <row r="29" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5462,74 +4886,74 @@
       <c r="K31" s="24"/>
     </row>
     <row r="32" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="158" t="s">
+      <c r="B32" s="159" t="s">
         <v>82</v>
       </c>
-      <c r="C32" s="158"/>
-      <c r="D32" s="158"/>
-      <c r="E32" s="158"/>
-      <c r="F32" s="158"/>
-      <c r="G32" s="158"/>
-      <c r="H32" s="158"/>
-      <c r="I32" s="158"/>
-      <c r="J32" s="158"/>
-      <c r="K32" s="158"/>
+      <c r="C32" s="159"/>
+      <c r="D32" s="159"/>
+      <c r="E32" s="159"/>
+      <c r="F32" s="159"/>
+      <c r="G32" s="159"/>
+      <c r="H32" s="159"/>
+      <c r="I32" s="159"/>
+      <c r="J32" s="159"/>
+      <c r="K32" s="159"/>
     </row>
     <row r="33" spans="1:11" s="26" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="158" t="s">
+      <c r="A33" s="159" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="158"/>
-      <c r="C33" s="158"/>
-      <c r="D33" s="158"/>
-      <c r="E33" s="158"/>
-      <c r="F33" s="158"/>
-      <c r="G33" s="158"/>
-      <c r="H33" s="158"/>
-      <c r="I33" s="158"/>
-      <c r="J33" s="158"/>
-      <c r="K33" s="158"/>
+      <c r="B33" s="159"/>
+      <c r="C33" s="159"/>
+      <c r="D33" s="159"/>
+      <c r="E33" s="159"/>
+      <c r="F33" s="159"/>
+      <c r="G33" s="159"/>
+      <c r="H33" s="159"/>
+      <c r="I33" s="159"/>
+      <c r="J33" s="159"/>
+      <c r="K33" s="159"/>
     </row>
     <row r="34" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="157" t="s">
+      <c r="A34" s="158" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="157"/>
-      <c r="C34" s="157"/>
-      <c r="D34" s="157"/>
-      <c r="E34" s="157"/>
-      <c r="F34" s="157"/>
-      <c r="G34" s="157"/>
-      <c r="H34" s="157"/>
-      <c r="I34" s="157"/>
-      <c r="J34" s="157"/>
-      <c r="K34" s="157"/>
+      <c r="B34" s="158"/>
+      <c r="C34" s="158"/>
+      <c r="D34" s="158"/>
+      <c r="E34" s="158"/>
+      <c r="F34" s="158"/>
+      <c r="G34" s="158"/>
+      <c r="H34" s="158"/>
+      <c r="I34" s="158"/>
+      <c r="J34" s="158"/>
+      <c r="K34" s="158"/>
     </row>
     <row r="35" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="157" t="s">
+      <c r="A35" s="158" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="157"/>
-      <c r="C35" s="157"/>
-      <c r="D35" s="157"/>
-      <c r="E35" s="157"/>
-      <c r="F35" s="157"/>
-      <c r="G35" s="157"/>
+      <c r="B35" s="158"/>
+      <c r="C35" s="158"/>
+      <c r="D35" s="158"/>
+      <c r="E35" s="158"/>
+      <c r="F35" s="158"/>
+      <c r="G35" s="158"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
     </row>
     <row r="36" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="157" t="s">
+      <c r="A36" s="158" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="157"/>
-      <c r="C36" s="157"/>
-      <c r="D36" s="157"/>
-      <c r="E36" s="157"/>
-      <c r="F36" s="157"/>
-      <c r="G36" s="157"/>
+      <c r="B36" s="158"/>
+      <c r="C36" s="158"/>
+      <c r="D36" s="158"/>
+      <c r="E36" s="158"/>
+      <c r="F36" s="158"/>
+      <c r="G36" s="158"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
@@ -5537,6 +4961,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="C2:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="A2:B4"/>
     <mergeCell ref="L21:L22"/>
     <mergeCell ref="K21:K22"/>
     <mergeCell ref="I21:I22"/>
@@ -5553,22 +4993,6 @@
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="B21:B22"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="C2:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.16" top="0.27" bottom="0.22" header="0.22" footer="0.16"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -5601,8 +5025,8 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
+      <c r="A2" s="87"/>
+      <c r="B2" s="87"/>
       <c r="C2" s="173" t="s">
         <v>64</v>
       </c>
@@ -5612,14 +5036,14 @@
       <c r="G2" s="174"/>
       <c r="H2" s="174"/>
       <c r="I2" s="174"/>
-      <c r="J2" s="151" t="s">
+      <c r="J2" s="165" t="s">
         <v>72</v>
       </c>
-      <c r="K2" s="153"/>
+      <c r="K2" s="167"/>
     </row>
     <row r="3" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="62"/>
-      <c r="B3" s="62"/>
+      <c r="A3" s="87"/>
+      <c r="B3" s="87"/>
       <c r="C3" s="174"/>
       <c r="D3" s="174"/>
       <c r="E3" s="174"/>
@@ -5627,14 +5051,14 @@
       <c r="G3" s="174"/>
       <c r="H3" s="174"/>
       <c r="I3" s="174"/>
-      <c r="J3" s="151" t="s">
+      <c r="J3" s="165" t="s">
         <v>71</v>
       </c>
-      <c r="K3" s="153"/>
+      <c r="K3" s="167"/>
     </row>
     <row r="4" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="62"/>
-      <c r="B4" s="62"/>
+      <c r="A4" s="87"/>
+      <c r="B4" s="87"/>
       <c r="C4" s="174"/>
       <c r="D4" s="174"/>
       <c r="E4" s="174"/>
@@ -5642,16 +5066,16 @@
       <c r="G4" s="174"/>
       <c r="H4" s="174"/>
       <c r="I4" s="174"/>
-      <c r="J4" s="151" t="s">
+      <c r="J4" s="165" t="s">
         <v>61</v>
       </c>
-      <c r="K4" s="153"/>
+      <c r="K4" s="167"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="149" t="s">
+      <c r="A5" s="163" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="149"/>
+      <c r="B5" s="163"/>
       <c r="C5" s="168"/>
       <c r="D5" s="168"/>
       <c r="E5" s="168"/>
@@ -5722,8 +5146,8 @@
       <c r="G8" s="33"/>
       <c r="H8" s="32"/>
       <c r="I8" s="32"/>
-      <c r="J8" s="162"/>
-      <c r="K8" s="163"/>
+      <c r="J8" s="177"/>
+      <c r="K8" s="178"/>
     </row>
     <row r="9" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30">
@@ -5737,8 +5161,8 @@
       <c r="G9" s="32"/>
       <c r="H9" s="32"/>
       <c r="I9" s="32"/>
-      <c r="J9" s="162"/>
-      <c r="K9" s="163"/>
+      <c r="J9" s="177"/>
+      <c r="K9" s="178"/>
     </row>
     <row r="10" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="30">
@@ -5752,8 +5176,8 @@
       <c r="G10" s="33"/>
       <c r="H10" s="32"/>
       <c r="I10" s="32"/>
-      <c r="J10" s="164"/>
-      <c r="K10" s="165"/>
+      <c r="J10" s="179"/>
+      <c r="K10" s="180"/>
     </row>
     <row r="11" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="30">
@@ -5767,8 +5191,8 @@
       <c r="G11" s="32"/>
       <c r="H11" s="32"/>
       <c r="I11" s="32"/>
-      <c r="J11" s="164"/>
-      <c r="K11" s="165"/>
+      <c r="J11" s="179"/>
+      <c r="K11" s="180"/>
     </row>
     <row r="12" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="30">
@@ -5782,8 +5206,8 @@
       <c r="G12" s="32"/>
       <c r="H12" s="32"/>
       <c r="I12" s="32"/>
-      <c r="J12" s="164"/>
-      <c r="K12" s="165"/>
+      <c r="J12" s="179"/>
+      <c r="K12" s="180"/>
     </row>
     <row r="13" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="30">
@@ -5797,8 +5221,8 @@
       <c r="G13" s="32"/>
       <c r="H13" s="32"/>
       <c r="I13" s="32"/>
-      <c r="J13" s="164"/>
-      <c r="K13" s="165"/>
+      <c r="J13" s="179"/>
+      <c r="K13" s="180"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="171" t="s">
@@ -5812,44 +5236,35 @@
       <c r="G14" s="35"/>
       <c r="H14" s="36"/>
       <c r="I14" s="37"/>
-      <c r="J14" s="166"/>
-      <c r="K14" s="167"/>
+      <c r="J14" s="181"/>
+      <c r="K14" s="182"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:14" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="161" t="s">
+      <c r="A16" s="176" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="161"/>
-      <c r="C16" s="161"/>
+      <c r="B16" s="176"/>
+      <c r="C16" s="176"/>
       <c r="D16" s="38"/>
-      <c r="E16" s="161" t="s">
+      <c r="E16" s="176" t="s">
         <v>79</v>
       </c>
-      <c r="F16" s="161"/>
-      <c r="G16" s="161" t="s">
+      <c r="F16" s="176"/>
+      <c r="G16" s="176" t="s">
         <v>78</v>
       </c>
-      <c r="H16" s="161"/>
-      <c r="I16" s="161" t="s">
+      <c r="H16" s="176"/>
+      <c r="I16" s="176" t="s">
         <v>59</v>
       </c>
-      <c r="J16" s="161"/>
-      <c r="K16" s="161"/>
+      <c r="J16" s="176"/>
+      <c r="K16" s="176"/>
       <c r="M16" s="39"/>
       <c r="N16" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="C2:I4"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="H6:K6"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="G16:H16"/>
@@ -5861,6 +5276,15 @@
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="I16:K16"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="C2:I4"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="H6:K6"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.2" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
   <pageSetup scale="90" orientation="landscape" r:id="rId1"/>
@@ -5900,48 +5324,48 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="63" t="s">
+      <c r="A2" s="87"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="151" t="s">
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="165" t="s">
         <v>70</v>
       </c>
-      <c r="J2" s="153"/>
+      <c r="J2" s="167"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="62"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="151" t="s">
+      <c r="A3" s="87"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="165" t="s">
         <v>71</v>
       </c>
-      <c r="J3" s="153"/>
+      <c r="J3" s="167"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="62"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="178"/>
-      <c r="E4" s="179"/>
-      <c r="F4" s="179"/>
-      <c r="G4" s="179"/>
-      <c r="H4" s="180"/>
-      <c r="I4" s="151" t="s">
+      <c r="A4" s="87"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="188"/>
+      <c r="E4" s="189"/>
+      <c r="F4" s="189"/>
+      <c r="G4" s="189"/>
+      <c r="H4" s="190"/>
+      <c r="I4" s="165" t="s">
         <v>61</v>
       </c>
-      <c r="J4" s="153"/>
+      <c r="J4" s="167"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
@@ -5987,11 +5411,11 @@
       <c r="A8" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="176" t="s">
+      <c r="B8" s="186" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="176"/>
-      <c r="D8" s="176"/>
+      <c r="C8" s="186"/>
+      <c r="D8" s="186"/>
       <c r="E8" s="42" t="s">
         <v>2</v>
       </c>
@@ -6001,174 +5425,174 @@
       <c r="G8" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="H8" s="176" t="s">
+      <c r="H8" s="186" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="176"/>
-      <c r="J8" s="177"/>
+      <c r="I8" s="186"/>
+      <c r="J8" s="187"/>
     </row>
     <row r="9" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="43">
         <v>1</v>
       </c>
-      <c r="B9" s="75"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="181"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="183"/>
     </row>
     <row r="10" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="43">
         <f t="shared" ref="A10:A18" si="0">+A9+1</f>
         <v>2</v>
       </c>
-      <c r="B10" s="75"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="181"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="183"/>
     </row>
     <row r="11" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="43">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B11" s="75"/>
-      <c r="C11" s="75"/>
-      <c r="D11" s="75"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="75"/>
-      <c r="I11" s="75"/>
-      <c r="J11" s="181"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="183"/>
     </row>
     <row r="12" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="43">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B12" s="75"/>
-      <c r="C12" s="75"/>
-      <c r="D12" s="75"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="181"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="183"/>
     </row>
     <row r="13" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="43">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B13" s="75"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="75"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="181"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="183"/>
     </row>
     <row r="14" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="43">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B14" s="75"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="75"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="75"/>
-      <c r="I14" s="75"/>
-      <c r="J14" s="181"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="183"/>
     </row>
     <row r="15" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="43">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B15" s="75"/>
-      <c r="C15" s="75"/>
-      <c r="D15" s="75"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="4"/>
-      <c r="H15" s="75"/>
-      <c r="I15" s="75"/>
-      <c r="J15" s="181"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="183"/>
     </row>
     <row r="16" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="43">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B16" s="75"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="75"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="73"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="75"/>
-      <c r="J16" s="181"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="183"/>
     </row>
     <row r="17" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="43">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B17" s="75"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="75"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="73"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="181"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="183"/>
     </row>
     <row r="18" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="43">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B18" s="75"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="75"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="75"/>
-      <c r="I18" s="75"/>
-      <c r="J18" s="181"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="73"/>
+      <c r="J18" s="183"/>
     </row>
     <row r="19" spans="1:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="44">
         <v>11</v>
       </c>
-      <c r="B19" s="182"/>
-      <c r="C19" s="182"/>
-      <c r="D19" s="182"/>
+      <c r="B19" s="184"/>
+      <c r="C19" s="184"/>
+      <c r="D19" s="184"/>
       <c r="E19" s="45"/>
       <c r="F19" s="45"/>
       <c r="G19" s="46"/>
-      <c r="H19" s="182"/>
-      <c r="I19" s="182"/>
-      <c r="J19" s="183"/>
+      <c r="H19" s="184"/>
+      <c r="I19" s="184"/>
+      <c r="J19" s="185"/>
     </row>
     <row r="20" spans="1:10" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
@@ -6183,42 +5607,42 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="83" t="s">
+      <c r="A21" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="B21" s="84"/>
-      <c r="C21" s="84"/>
-      <c r="D21" s="84" t="s">
+      <c r="B21" s="76"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="E21" s="84"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="84" t="s">
+      <c r="E21" s="76"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="84"/>
-      <c r="I21" s="84"/>
-      <c r="J21" s="85"/>
+      <c r="H21" s="76"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="77"/>
     </row>
     <row r="22" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="86"/>
-      <c r="B22" s="87"/>
-      <c r="C22" s="87"/>
-      <c r="D22" s="87"/>
-      <c r="E22" s="87"/>
-      <c r="F22" s="87"/>
-      <c r="G22" s="87"/>
-      <c r="H22" s="87"/>
-      <c r="I22" s="87"/>
-      <c r="J22" s="88"/>
+      <c r="A22" s="66"/>
+      <c r="B22" s="67"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="68"/>
     </row>
     <row r="23" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="87"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -6228,9 +5652,9 @@
       <c r="A24" s="6"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -6240,9 +5664,9 @@
       <c r="A25" s="6"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="87"/>
-      <c r="E25" s="87"/>
-      <c r="F25" s="87"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -6252,9 +5676,9 @@
       <c r="A26" s="8"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
-      <c r="D26" s="90"/>
-      <c r="E26" s="90"/>
-      <c r="F26" s="90"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="70"/>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
@@ -6262,6 +5686,38 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="A2:C4"/>
+    <mergeCell ref="D2:H4"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:J21"/>
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="D22:F22"/>
@@ -6269,38 +5725,6 @@
     <mergeCell ref="D23:F23"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="D25:F25"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="A2:C4"/>
-    <mergeCell ref="D2:H4"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
